--- a/biology/Mycologie/Tilletia/Tilletia.xlsx
+++ b/biology/Mycologie/Tilletia/Tilletia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tilletia est un genre de champignons basidiomycètes de la famille des Tilletiaceae.
-Ce genre cosmopolite comprend environ 175 espèces[2]. 
-Celles-ci sont des champignons phytopathogènes qui affectent diverses espèces de plantes de la famille des Poaceae (graminées) et sont responsables en particulier des caries des céréales. Par exemple, Tilletia indica qui provoque la carie de Karnal du blé et Tilletia horrida responsable du charbon noir du riz, sont des espèces qui ont un impact économique important sur l'agriculture[3].
+Ce genre cosmopolite comprend environ 175 espèces. 
+Celles-ci sont des champignons phytopathogènes qui affectent diverses espèces de plantes de la famille des Poaceae (graminées) et sont responsables en particulier des caries des céréales. Par exemple, Tilletia indica qui provoque la carie de Karnal du blé et Tilletia horrida responsable du charbon noir du riz, sont des espèces qui ont un impact économique important sur l'agriculture.
 Le nom du genre est un hommage à l'agronome français, Mathieu Tillet (1714-1791).
 </t>
         </is>
@@ -514,9 +526,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (7 octobre 2014)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (7 octobre 2014) :
 Tilletia abscondita
 Tilletia acroceratis
 Tilletia aegilopis
@@ -732,7 +746,7 @@
 Tilletia youngii
 Tilletia zonata
 Tilletia zundelii
-Selon Index Fungorum                                      (7 octobre 2014)[5] :
+Selon Index Fungorum                                      (7 octobre 2014) :
 Tilletia abscondita Syd. &amp; P. Syd. 1903
 Tilletia acroceratis Vánky 2004
 Tilletia aculeata Ule 1886
@@ -884,9 +898,9 @@
 Tilletia nigrifaciens Langdon &amp; Boughton 1978
 Tilletia obscuroreticulata Durán 1987
 Tilletia oklahomae Zundel 1939
-Selon ITIS      (7 octobre 2014)[1] :
+Selon ITIS      (7 octobre 2014) :
 Tilletia caries (DC.) Tul. &amp; C. Tul.
-Selon NCBI  (7 octobre 2014)[6] :
+Selon NCBI  (7 octobre 2014) :
 Tilletia aegopogonis
 Tilletia anthoxanthi
 Tilletia asperifolia
